--- a/insight/report.xlsx
+++ b/insight/report.xlsx
@@ -13,15 +13,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Sub-Project</t>
-  </si>
-  <si>
-    <t>Campaign1</t>
   </si>
   <si>
     <t>Pan India</t>
@@ -412,24 +406,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -463,43 +448,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -517,10 +502,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>9806806.0</v>
@@ -529,13 +514,13 @@
         <v>45350.0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>100.0</v>
+        <v>102.0</v>
       </c>
       <c r="I2" s="2">
         <v>68.0</v>
@@ -550,7 +535,7 @@
         <v>3.05</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -558,10 +543,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>0.0</v>
@@ -570,10 +555,10 @@
         <v>45351.0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>0.0</v>
@@ -3622,43 +3607,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -3676,10 +3661,10 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9">
         <v>9806806.0</v>
@@ -3688,10 +3673,10 @@
         <v>45350.0</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>100.0</v>
@@ -3709,7 +3694,7 @@
         <v>3.05</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -3717,10 +3702,10 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="9">
         <v>0.0</v>
@@ -3729,10 +3714,10 @@
         <v>45351.0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>0.0</v>
@@ -3750,7 +3735,7 @@
         <v>2.14</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">

--- a/insight/report.xlsx
+++ b/insight/report.xlsx
@@ -72,13 +72,13 @@
     <t>Video</t>
   </si>
   <si>
-    <t>Vivek</t>
+    <t>Campaign1</t>
   </si>
   <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>Bhavesh</t>
+    <t>Campaign2</t>
   </si>
 </sst>
 </file>

--- a/insight/report.xlsx
+++ b/insight/report.xlsx
@@ -36,6 +36,9 @@
     <t>Follower count</t>
   </si>
   <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
     <t>Posting Date</t>
   </si>
   <si>
@@ -60,25 +63,22 @@
     <t>Enagagement</t>
   </si>
   <si>
-    <t>Campaign Name</t>
-  </si>
-  <si>
     <t>naughtyworld</t>
   </si>
   <si>
     <t>https://www.instagram.com/naughtyworld/</t>
   </si>
   <si>
+    <t>Campaign1</t>
+  </si>
+  <si>
     <t>Video</t>
   </si>
   <si>
-    <t>Campaign1</t>
+    <t>Campaign2</t>
   </si>
   <si>
     <t>Photo</t>
-  </si>
-  <si>
-    <t>Campaign2</t>
   </si>
 </sst>
 </file>
@@ -436,14 +436,14 @@
     <col customWidth="1" min="2" max="2" width="10.88"/>
     <col customWidth="1" min="3" max="3" width="18.38"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="5" width="11.13"/>
-    <col customWidth="1" min="6" max="6" width="15.13"/>
-    <col customWidth="1" min="7" max="7" width="9.88"/>
-    <col customWidth="1" min="8" max="8" width="5.75"/>
-    <col customWidth="1" min="9" max="9" width="6.0"/>
-    <col customWidth="1" min="10" max="10" width="5.25"/>
-    <col customWidth="1" min="11" max="11" width="9.63"/>
-    <col customWidth="1" min="12" max="12" width="11.88"/>
+    <col customWidth="1" min="6" max="6" width="11.13"/>
+    <col customWidth="1" min="7" max="7" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="9.88"/>
+    <col customWidth="1" min="9" max="9" width="5.75"/>
+    <col customWidth="1" min="10" max="10" width="6.0"/>
+    <col customWidth="1" min="11" max="11" width="5.25"/>
+    <col customWidth="1" min="12" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -459,28 +459,28 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -510,32 +510,32 @@
       <c r="D2" s="9">
         <v>9806806.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10">
         <v>45350.0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
         <v>102.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>68.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>50.0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>12.0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>3.05</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -551,32 +551,32 @@
       <c r="D3" s="9">
         <v>0.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10">
         <v>45351.0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.0</v>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="2">
         <v>0.0</v>
       </c>
       <c r="J3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="2">
         <v>55.0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10.0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>2.14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -3573,9 +3573,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId2" ref="G2"/>
     <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="F3"/>
+    <hyperlink r:id="rId4" ref="G3"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
@@ -3595,14 +3595,14 @@
     <col customWidth="1" min="2" max="2" width="10.88"/>
     <col customWidth="1" min="3" max="3" width="18.38"/>
     <col customWidth="1" min="4" max="4" width="12.88"/>
-    <col customWidth="1" min="5" max="5" width="11.13"/>
-    <col customWidth="1" min="6" max="6" width="15.13"/>
-    <col customWidth="1" min="7" max="7" width="9.88"/>
-    <col customWidth="1" min="8" max="8" width="5.75"/>
-    <col customWidth="1" min="9" max="9" width="6.0"/>
-    <col customWidth="1" min="10" max="10" width="5.25"/>
-    <col customWidth="1" min="11" max="11" width="9.63"/>
-    <col customWidth="1" min="12" max="12" width="11.88"/>
+    <col customWidth="1" min="6" max="6" width="11.13"/>
+    <col customWidth="1" min="7" max="7" width="15.13"/>
+    <col customWidth="1" min="8" max="8" width="9.88"/>
+    <col customWidth="1" min="9" max="9" width="5.75"/>
+    <col customWidth="1" min="10" max="10" width="6.0"/>
+    <col customWidth="1" min="11" max="11" width="5.25"/>
+    <col customWidth="1" min="12" max="12" width="9.63"/>
+    <col customWidth="1" min="13" max="13" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3618,28 +3618,28 @@
       <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="5" t="s">
@@ -3669,32 +3669,32 @@
       <c r="D2" s="9">
         <v>9806806.0</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10">
         <v>45350.0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
         <v>100.0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>68.0</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>50.0</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>12.0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>3.05</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -3710,32 +3710,32 @@
       <c r="D3" s="9">
         <v>0.0</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10">
         <v>45351.0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.0</v>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="I3" s="2">
         <v>0.0</v>
       </c>
       <c r="J3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="2">
         <v>55.0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>10.0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>2.14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -6732,9 +6732,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
+    <hyperlink r:id="rId2" ref="G2"/>
     <hyperlink r:id="rId3" ref="C3"/>
-    <hyperlink r:id="rId4" ref="F3"/>
+    <hyperlink r:id="rId4" ref="G3"/>
   </hyperlinks>
   <drawing r:id="rId5"/>
 </worksheet>
